--- a/biology/Zoologie/Comophyllia/Comophyllia.xlsx
+++ b/biology/Zoologie/Comophyllia/Comophyllia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Comophyllia est un genre éteint de coraux durs de la famille également éteinte des Latomeandridae et de l'ordre des Scleractinia (ou scléractiniaires). Les différentes espèces sont trouvées dans des terrains datant entre 189,6 et 109,0 Ma (Jurassique et Crétacé inférieur), avec une répartition mondiale.
 L'espèce type, C. elegans, a été décrite d'un terrain jurassique à Poisat, dans l'Isère, en France.
